--- a/USDFramework/TC_Template/Main.rvl.xlsx
+++ b/USDFramework/TC_Template/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="55">
   <si>
     <t>Flow</t>
   </si>
@@ -130,6 +130,54 @@
   </si>
   <si>
     <t>USDClose</t>
+  </si>
+  <si>
+    <t>USDLogin</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>DoSleep</t>
+  </si>
+  <si>
+    <t>millis</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>of Loop</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Loop body</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -150,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="180">
+  <borders count="202">
     <border>
       <left/>
       <right/>
@@ -337,11 +385,33 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -522,6 +592,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -775,54 +867,19 @@
       <c r="H13" s="40"/>
     </row>
     <row r="14">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="A14" s="192"/>
     </row>
     <row r="15">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
+      <c r="A15" s="193"/>
     </row>
     <row r="16">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64"/>
+      <c r="A16" s="194"/>
     </row>
     <row r="17">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
+      <c r="A17" s="195"/>
     </row>
     <row r="18">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
+      <c r="A18" s="196"/>
     </row>
     <row r="19">
       <c r="A19" s="81"/>
@@ -847,94 +904,99 @@
       <c r="H19" s="88"/>
     </row>
     <row r="20">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
     </row>
     <row r="21">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
     </row>
     <row r="22">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
     </row>
     <row r="23">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="120"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
     </row>
     <row r="24">
-      <c r="A24" s="121"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="128"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="136"/>
     </row>
     <row r="25">
-      <c r="A25" s="129"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="136"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="144"/>
     </row>
     <row r="26">
-      <c r="A26" s="137"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="144"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="152"/>
     </row>
     <row r="27">
-      <c r="A27" s="145"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="152"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="160"/>
     </row>
     <row r="28">
-      <c r="A28" s="153"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="160"/>
+      <c r="A28" s="197"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="198"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="199"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="200"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="201"/>
     </row>
   </sheetData>
 </worksheet>
